--- a/Amplitude_Data/Amplitude.xlsx
+++ b/Amplitude_Data/Amplitude.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Quantum-Hardware\Amplitude Data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8CD923-E9D2-4C1D-9CB2-9C829259A026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio2" sheetId="2" r:id="rId2"/>
+    <sheet r:id="rId1" sheetId="1" name="Foglio1"/>
+    <sheet r:id="rId2" sheetId="2" name="Foglio2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -62,37 +56,37 @@
     <t>DeltaY(mV)</t>
   </si>
   <si>
-    <t>senza nome</t>
+    <t>File7_zoom</t>
+  </si>
+  <si>
+    <t>File3_zoom</t>
   </si>
   <si>
     <t>File2_zoom</t>
   </si>
   <si>
-    <t>File3_zoom</t>
+    <t>File1_zoom</t>
   </si>
   <si>
     <t>File4_zoom</t>
   </si>
   <si>
+    <t>FIle8_zoom</t>
+  </si>
+  <si>
+    <t>File9_zoom</t>
+  </si>
+  <si>
+    <t>File10_zoom</t>
+  </si>
+  <si>
     <t>File5_zoom</t>
   </si>
   <si>
+    <t>File11_zoom</t>
+  </si>
+  <si>
     <t>FIle6_zoom</t>
-  </si>
-  <si>
-    <t>File7_zoom</t>
-  </si>
-  <si>
-    <t>FIle8_zoom</t>
-  </si>
-  <si>
-    <t>File9_zoom</t>
-  </si>
-  <si>
-    <t>File10_zoom</t>
-  </si>
-  <si>
-    <t>File11_zoom</t>
   </si>
   <si>
     <t>File12_zoom</t>
@@ -104,7 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,55 +178,68 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="18">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -242,10 +250,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="000000"/>
@@ -283,71 +291,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -375,7 +383,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -398,11 +406,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -411,13 +419,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -427,7 +435,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -436,7 +444,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -445,7 +453,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -453,10 +461,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
+              <a:rot rev="0" lon="0" lat="0"/>
             </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -521,378 +529,667 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="16" width="24.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+      <c r="A1" s="8"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-    </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13"/>
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13"/>
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13"/>
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="C3" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D3" s="5">
+        <v>200</v>
+      </c>
+      <c r="E3" s="5">
+        <v>400</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1000</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1080</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="C4" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D4" s="5">
+        <v>200</v>
+      </c>
+      <c r="E4" s="5">
+        <v>400</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2500</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1013</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="C5" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D5" s="5">
+        <v>200</v>
+      </c>
+      <c r="E5" s="5">
+        <v>400</v>
+      </c>
+      <c r="F5" s="5">
+        <v>3500</v>
+      </c>
+      <c r="G5" s="5">
+        <v>980</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="C6" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D6" s="5">
+        <v>200</v>
+      </c>
+      <c r="E6" s="5">
+        <v>400</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5200</v>
+      </c>
+      <c r="G6" s="5">
+        <v>960</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="C7" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D7" s="5">
+        <v>200</v>
+      </c>
+      <c r="E7" s="5">
+        <v>400</v>
+      </c>
+      <c r="F7" s="5">
+        <v>7000</v>
+      </c>
+      <c r="G7" s="5">
+        <v>870</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15">
+        <v>8.891</v>
+      </c>
+      <c r="C8" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D8" s="5">
+        <v>200</v>
+      </c>
+      <c r="E8" s="5">
+        <v>400</v>
+      </c>
+      <c r="F8" s="5">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="5">
+        <v>843</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B9" s="15">
         <v>8.891</v>
       </c>
-      <c r="C3" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D3" s="13">
+      <c r="C9" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D9" s="5">
         <v>200</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E9" s="5">
         <v>400</v>
       </c>
-      <c r="F3" s="4">
-        <v>1000</v>
-      </c>
-      <c r="G3" s="4">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="12">
+      <c r="F9" s="5">
+        <v>13000</v>
+      </c>
+      <c r="G9" s="5">
+        <v>780</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="15">
         <v>8.891</v>
       </c>
-      <c r="C4" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D4" s="13">
+      <c r="C10" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D10" s="5">
         <v>200</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E10" s="5">
         <v>400</v>
       </c>
-      <c r="F4" s="4">
-        <v>2500</v>
-      </c>
-      <c r="G4" s="4">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="12">
+      <c r="F10" s="5">
+        <v>16000</v>
+      </c>
+      <c r="G10" s="5">
+        <v>720</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="15">
         <v>8.891</v>
       </c>
-      <c r="C5" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D5" s="13">
+      <c r="C11" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D11" s="5">
         <v>200</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E11" s="5">
         <v>400</v>
       </c>
-      <c r="F5" s="4">
-        <v>3500</v>
-      </c>
-      <c r="G5" s="4">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="12">
+      <c r="F11" s="5">
+        <v>20000</v>
+      </c>
+      <c r="G11" s="5">
+        <v>633</v>
+      </c>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="15">
         <v>8.891</v>
       </c>
-      <c r="C6" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D6" s="13">
+      <c r="C12" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D12" s="5">
         <v>200</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E12" s="5">
         <v>400</v>
       </c>
-      <c r="F6" s="4">
-        <v>5200</v>
-      </c>
-      <c r="G6" s="4">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="12">
+      <c r="F12" s="5">
+        <v>25000</v>
+      </c>
+      <c r="G12" s="5">
+        <v>568</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="15">
         <v>8.891</v>
       </c>
-      <c r="C7" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D7" s="13">
+      <c r="C13" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D13" s="5">
         <v>200</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E13" s="5">
         <v>400</v>
       </c>
-      <c r="F7" s="4">
-        <v>7000</v>
-      </c>
-      <c r="G7" s="4">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="12">
-        <v>8.891</v>
-      </c>
-      <c r="C8" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D8" s="13">
-        <v>200</v>
-      </c>
-      <c r="E8" s="13">
-        <v>400</v>
-      </c>
-      <c r="F8" s="4">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="4">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="12">
-        <v>8.891</v>
-      </c>
-      <c r="C9" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D9" s="13">
-        <v>200</v>
-      </c>
-      <c r="E9" s="13">
-        <v>400</v>
-      </c>
-      <c r="F9" s="4">
-        <v>13000</v>
-      </c>
-      <c r="G9" s="4">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" s="12">
-        <v>8.891</v>
-      </c>
-      <c r="C10" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D10" s="13">
-        <v>200</v>
-      </c>
-      <c r="E10" s="13">
-        <v>400</v>
-      </c>
-      <c r="F10" s="4">
-        <v>16000</v>
-      </c>
-      <c r="G10" s="4">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="12">
-        <v>8.891</v>
-      </c>
-      <c r="C11" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D11" s="13">
-        <v>200</v>
-      </c>
-      <c r="E11" s="13">
-        <v>400</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20000</v>
-      </c>
-      <c r="G11" s="4">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="12">
-        <v>8.891</v>
-      </c>
-      <c r="C12" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D12" s="13">
-        <v>200</v>
-      </c>
-      <c r="E12" s="13">
-        <v>400</v>
-      </c>
-      <c r="F12" s="4">
-        <v>25000</v>
-      </c>
-      <c r="G12" s="4">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="12">
-        <v>8.891</v>
-      </c>
-      <c r="C13" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D13" s="13">
-        <v>200</v>
-      </c>
-      <c r="E13" s="13">
-        <v>400</v>
-      </c>
-      <c r="F13" s="4">
+      <c r="F13" s="5">
         <v>30000</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="5">
         <v>480</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="15">
         <v>8.891</v>
       </c>
-      <c r="C14" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D14" s="13">
+      <c r="C14" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D14" s="5">
         <v>200</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E14" s="5">
         <v>400</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="5">
         <v>40000</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="5">
         <v>363</v>
       </c>
-    </row>
-    <row r="15" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="15">
         <v>8.891</v>
       </c>
-      <c r="C15" s="12">
-        <v>24.308499999999999</v>
-      </c>
-      <c r="D15" s="13">
+      <c r="C15" s="15">
+        <v>24.3085</v>
+      </c>
+      <c r="D15" s="5">
         <v>200</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="5">
         <v>400</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="5">
         <v>60000</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="5">
         <v>217</v>
       </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G15">
-    <sortCondition ref="F3:F15"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -900,20 +1197,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-    </row>
-    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="3"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -921,9 +1223,17 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1"/>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -931,289 +1241,395 @@
       <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="4">
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5">
         <v>140</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="5">
         <v>1310</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="4">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+      <c r="A6" s="4"/>
+      <c r="B6" s="5">
         <v>145</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="5">
         <v>1147</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5">
         <v>150</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="5">
         <v>843</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="4">
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+      <c r="A8" s="4"/>
+      <c r="B8" s="5">
         <v>155</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="5">
         <v>643</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="4">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+      <c r="A9" s="4"/>
+      <c r="B9" s="5">
         <v>160</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="5">
         <v>397</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="4">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="5">
         <v>165</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="5">
         <v>177</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="4">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5">
         <v>170</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="5">
         <v>210</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="4">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5">
         <v>175</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="5">
         <v>390</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="4">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5">
         <v>180</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="5">
         <v>743</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+      <c r="A14" s="4"/>
+      <c r="B14" s="5">
         <v>185</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="5">
         <v>990</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5">
         <v>190</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="5">
         <v>990</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="4">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+      <c r="A16" s="4"/>
+      <c r="B16" s="5">
         <v>195</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="5">
         <v>1023</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="4">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+      <c r="A17" s="4"/>
+      <c r="B17" s="5">
         <v>200</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="5">
         <v>1027</v>
       </c>
+      <c r="D17" s="4"/>
       <c r="E17" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="4">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+      <c r="A18" s="4"/>
+      <c r="B18" s="5">
         <v>205</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="5">
         <v>950</v>
       </c>
-    </row>
-    <row r="19" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="4">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+      <c r="A19" s="4"/>
+      <c r="B19" s="5">
         <v>210</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>923</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+      <c r="A20" s="4"/>
+      <c r="B20" s="5">
         <v>215</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="5">
         <v>807</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="4">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="A21" s="4"/>
+      <c r="B21" s="5">
         <v>220</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="5">
         <v>673</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="4">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="A22" s="4"/>
+      <c r="B22" s="5">
         <v>225</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="5">
         <v>507</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="4">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+      <c r="A23" s="4"/>
+      <c r="B23" s="5">
         <v>230</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="5">
         <v>327</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="4">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+      <c r="A24" s="4"/>
+      <c r="B24" s="5">
         <v>235</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="5">
         <v>160</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="4">
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+      <c r="A25" s="4"/>
+      <c r="B25" s="5">
         <v>240</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="5">
         <v>180</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="4">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+      <c r="A26" s="4"/>
+      <c r="B26" s="5">
         <v>245</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="5">
         <v>693</v>
       </c>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="4">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+      <c r="A27" s="4"/>
+      <c r="B27" s="5">
         <v>250</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="5">
         <v>790</v>
       </c>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="4">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+      <c r="A28" s="4"/>
+      <c r="B28" s="5">
         <v>255</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="5">
         <v>850</v>
       </c>
-    </row>
-    <row r="29" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="4">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+      <c r="A29" s="4"/>
+      <c r="B29" s="5">
         <v>260</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="5">
         <v>970</v>
       </c>
-    </row>
-    <row r="30" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="4">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+      <c r="A30" s="4"/>
+      <c r="B30" s="5">
         <v>265</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="5">
         <v>1093</v>
       </c>
-    </row>
-    <row r="31" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="4">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+      <c r="A31" s="4"/>
+      <c r="B31" s="5">
         <v>270</v>
       </c>
-      <c r="C31" s="4">
+      <c r="C31" s="5">
         <v>1170</v>
       </c>
-    </row>
-    <row r="32" spans="2:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="4">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+      <c r="A32" s="4"/>
+      <c r="B32" s="5">
         <v>275</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="5">
         <v>1240</v>
       </c>
-    </row>
-    <row r="33" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="4">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+      <c r="A33" s="4"/>
+      <c r="B33" s="5">
         <v>280</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="5">
         <v>1287</v>
       </c>
-    </row>
-    <row r="34" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="4">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+      <c r="A34" s="4"/>
+      <c r="B34" s="5">
         <v>285</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="5">
         <v>1257</v>
       </c>
-    </row>
-    <row r="35" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="4">
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+      <c r="A35" s="4"/>
+      <c r="B35" s="5">
         <v>290</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="5">
         <v>1213</v>
       </c>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="4">
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+      <c r="A36" s="4"/>
+      <c r="B36" s="5">
         <v>295</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="5">
         <v>1110</v>
       </c>
-    </row>
-    <row r="37" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="4">
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+      <c r="A37" s="4"/>
+      <c r="B37" s="5">
         <v>300</v>
       </c>
-      <c r="C37" s="4">
+      <c r="C37" s="5">
         <v>963</v>
       </c>
-    </row>
-    <row r="38" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="4">
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+      <c r="A38" s="4"/>
+      <c r="B38" s="5">
         <v>305</v>
       </c>
-      <c r="C38" s="4">
+      <c r="C38" s="5">
         <v>773</v>
       </c>
-    </row>
-    <row r="39" spans="2:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="4">
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+      <c r="A39" s="4"/>
+      <c r="B39" s="5">
         <v>310</v>
       </c>
-      <c r="C39" s="4">
+      <c r="C39" s="5">
         <v>660</v>
       </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Amplitude_Data/Amplitude.xlsx
+++ b/Amplitude_Data/Amplitude.xlsx
@@ -100,7 +100,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,6 +112,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -186,7 +192,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -201,22 +207,22 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">

--- a/Amplitude_Data/Amplitude.xlsx
+++ b/Amplitude_Data/Amplitude.xlsx
@@ -50,7 +50,7 @@
     <t>T2(ms)</t>
   </si>
   <si>
-    <t>DeltaT(ms)</t>
+    <t>DeltaT(mus)</t>
   </si>
   <si>
     <t>DeltaY(mV)</t>

--- a/Amplitude_Data/Amplitude.xlsx
+++ b/Amplitude_Data/Amplitude.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>AMPIEZZE DEL PI HALF AL VARIARE DI T</t>
   </si>
@@ -26,10 +26,10 @@
     <t>106 microsecondi</t>
   </si>
   <si>
-    <t>T1</t>
-  </si>
-  <si>
-    <t>DeltaY mV</t>
+    <t>t1(mus)</t>
+  </si>
+  <si>
+    <t>DeltaY(mV)</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -50,10 +50,7 @@
     <t>T2(ms)</t>
   </si>
   <si>
-    <t>DeltaT(mus)</t>
-  </si>
-  <si>
-    <t>DeltaY(mV)</t>
+    <t>tau(mus)</t>
   </si>
   <si>
     <t>File7_zoom</t>
@@ -116,7 +113,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -573,7 +570,7 @@
     <col min="26" max="26" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="8"/>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -621,7 +618,7 @@
         <v>11</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -645,7 +642,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3" s="15">
         <v>8.891</v>
@@ -687,7 +684,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="15">
         <v>8.891</v>
@@ -729,7 +726,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="15">
         <v>8.891</v>
@@ -771,7 +768,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="15">
         <v>8.891</v>
@@ -813,7 +810,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="15">
         <v>8.891</v>
@@ -855,7 +852,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="15">
         <v>8.891</v>
@@ -897,7 +894,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
       <c r="A9" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="15">
         <v>8.891</v>
@@ -939,7 +936,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
       <c r="A10" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="15">
         <v>8.891</v>
@@ -981,7 +978,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
       <c r="A11" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B11" s="15">
         <v>8.891</v>
@@ -1023,7 +1020,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
       <c r="A12" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="15">
         <v>8.891</v>
@@ -1065,7 +1062,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
       <c r="A13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="15">
         <v>8.891</v>
@@ -1107,7 +1104,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
       <c r="A14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="15">
         <v>8.891</v>
@@ -1149,7 +1146,7 @@
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
       <c r="A15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="15">
         <v>8.891</v>
@@ -1212,7 +1209,7 @@
     <col min="5" max="5" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1232,7 +1229,7 @@
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="4"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
